--- a/biology/Botanique/Sesuvium_portulacastrum/Sesuvium_portulacastrum.xlsx
+++ b/biology/Botanique/Sesuvium_portulacastrum/Sesuvium_portulacastrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sesuvium portulacastrum, ou Sésuvie à fleurs de pourpier, parfois appelé pourpier de mer, est une plante succulente herbacée pérenne de la famille des Aizoaceae, cosmopolite, qui croît dans les zones côtières.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Herbe vivace, grasse, couchée, radicante, rampante sur plusieurs mètres[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Herbe vivace, grasse, couchée, radicante, rampante sur plusieurs mètres
 Les tiges sont cylindriques, grosses, succulentes, vertes.
 Les feuilles sont cylindriques luisantes , opposées
-Les fleurs roses faiblement pédonculées ne s'ouvrent que vers 11 heures, midi[2].</t>
+Les fleurs roses faiblement pédonculées ne s'ouvrent que vers 11 heures, midi.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sesuvium portulacastrum très cosmopolite, est présente sur les bords de mer, depuis la Polynésie, Nouvelle-Calédonie[3], Australie, Océan Indien, Afrique, Amérique, jusque sur les côtes des Antilles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sesuvium portulacastrum très cosmopolite, est présente sur les bords de mer, depuis la Polynésie, Nouvelle-Calédonie, Australie, Océan Indien, Afrique, Amérique, jusque sur les côtes des Antilles.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont consommées aux Philippines, sous le nom de dampalit .
 </t>
@@ -606,14 +624,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Sesuvium portulacastrum (L.) L.[1]. L'espèce a été initialement classée dans le genre Portulaca sous le basionyme Portulaca portulacastrum L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : pourpier de mer[1], sésuvie faux-pourpier[4].
-Sesuvium portulacastrum a pour synonyme[1] :
-Trianthema portulacastrum var. hillebrandii Degen &amp; I.Deg.
-Liste des sous-espèces et variétés
-Selon GBIF       (18 janvier 2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Sesuvium portulacastrum (L.) L.. L'espèce a été initialement classée dans le genre Portulaca sous le basionyme Portulaca portulacastrum L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : pourpier de mer, sésuvie faux-pourpier.
+Sesuvium portulacastrum a pour synonyme :
+Trianthema portulacastrum var. hillebrandii Degen &amp; I.Deg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sesuvium_portulacastrum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sesuvium_portulacastrum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 janvier 2024) :
 Sesuvium portulacastrum subsp. persoonii Sukhor.
 Sesuvium portulacastrum subsp. portulacastrum
 Sesuvium portulacastrum var. griseum O.Deg. &amp; Fosberg
